--- a/data/hotels_by_city/Dallas/Dallas_shard_213.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_213.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="391">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>larrycordova</t>
   </si>
   <si>
     <t>05/29/2018</t>
@@ -194,6 +197,9 @@
 the last room we had had a recliner in it very Nice yup not this one, when i asked about it she told me you got a deluxe room and you needed to book a studio room. well i have had both and not much of a difference as far as I can tell, well i guess the sofa pulls out to a bed but I have a bed ! give me my recliner i want to feel like...This is one sad property,No, Elevator is on thing and bad enough you have to carry all your stuff up 3 flights of stairs.after I checked in i asked here where the luggage cart was she told me i got it loaded up came back in and she tells me the elevator is out and the stairs are a million miles away plus having to carry all this stuff up the stairs is bad enough, poor guys before me had to carry up all of there work tools so nobody would steal there stuff!then after check in and the hiking journey from hell !! i go back down stairs and ask for kitchen equipment you know to prepare meal and cook with.nope none. every other extended stay has cups, silverware, pot, pans, coffee maker coffee mugs, dishes side dishes, toaster etc. kind of like home yup 300 dollars worth of groceries an i cant make one meal.the last room we had had a recliner in it very Nice yup not this one, when i asked about it she told me you got a deluxe room and you needed to book a studio room. well i have had both and not much of a difference as far as I can tell, well i guess the sofa pulls out to a bed but I have a bed ! give me my recliner i want to feel like Home!i guess ill have to bring mine next time.so we get into the room and there is this letter that says from the manger how wonderful it is to have you and we are here to make your stay as comfortable as possible and blah blah blah. i ask how do i get in touch with here and the front desk response was she is to busy to hear your complaints she has been hearing them all before !ok thanks for that and i guess we write a letter to corporate now maybe they wont respond as well.I'm certainly disappointed with this property i have experienced this company before we have brought large groups with us when we open our restaurants, don't think I'll be doing that in the future.well good luck on this fine property making any great moves! I'll just have to suck it up.man i really hate wasting time on reviews like this if the people and company do what they are supposed to i would not be wasting my time with this stuff but you need to know be aware my friends. love all the pic by the way showing happy customers, and staff members giving keys and all the friendly we care stuff ya right !More</t>
   </si>
   <si>
+    <t>Agent_Gillispie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r510221225-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -224,6 +230,9 @@
     <t>I will book the Extended Stay when it comes time for me to travel again. It is an excellent hotel for the money that you spend. The staff is very courteous and knowledgeable. The rooms are very clean and comfortable. I even love going to the workout room as it has the equipment I like to use. The Extended Stay is a great place to stay.More</t>
   </si>
   <si>
+    <t>Nicole F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r574049588-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -251,6 +260,9 @@
     <t>Staff is great, especially Ashley she is very helpful! Clean rooms. Quiet comfortable place. We stay here whenever we're in town for work! Wifi could be a little better and we just wished the elevator worked!!!!More</t>
   </si>
   <si>
+    <t>Robert R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r569535289-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -281,6 +293,9 @@
     <t>Awesome place to stay. Rooms are always clean with plenty of room. Staff is amazing and very kind. Ashley, Lisa, Vivian and Jennifer are very professional and accommodating with all needs. I would recommend to anyone. They are the BEST!More</t>
   </si>
   <si>
+    <t>Denise M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r566711471-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -305,6 +320,9 @@
     <t>At check in we waited 10 min before someone said anything to us and that was only after I asked if we should come back or would be able to check in (it was 3pm). We get to the room the keys don’t work, is irritating because during our stay the elevator was being worked on the whole time. On the second day the door handle fell off the bathroom door along with the towel hook as well. The iron and ironing board was broken. There’s a spot by the sofa that smells of pee. We also noticed the sink and tub faucets would spit out rust and metal shaving while you showered, took a bath or brushed your teeth. House keeping came and cleaned so that was great, but they took all the dirty dishes from the room and left us with nothing. So my husband went down the next day to get new dishes so I could cook and they gave a hard time about getting new ones because they have already given us some. The micro wave had rust in it.  On the third day we got woken up early from the maintenance on the elevator, our room was right in front of it. I went down stairs to ask the front desk clerk if we could switch room to something further down the hall because of the noise. She walk away to get the manager and...At check in we waited 10 min before someone said anything to us and that was only after I asked if we should come back or would be able to check in (it was 3pm). We get to the room the keys don’t work, is irritating because during our stay the elevator was being worked on the whole time. On the second day the door handle fell off the bathroom door along with the towel hook as well. The iron and ironing board was broken. There’s a spot by the sofa that smells of pee. We also noticed the sink and tub faucets would spit out rust and metal shaving while you showered, took a bath or brushed your teeth. House keeping came and cleaned so that was great, but they took all the dirty dishes from the room and left us with nothing. So my husband went down the next day to get new dishes so I could cook and they gave a hard time about getting new ones because they have already given us some. The micro wave had rust in it.  On the third day we got woken up early from the maintenance on the elevator, our room was right in front of it. I went down stairs to ask the front desk clerk if we could switch room to something further down the hall because of the noise. She walk away to get the manager and the manager say they don’t have anything, she didn’t even look to see and it was at 9am went I asked. I asked if she would have anything the next day she said probably but she not sure once again not even looking in the system. So at that point I told her all the problems we where having so the maintenance man could take care of the problems. The handle and towel hook got fixed the same day so that was great. The new  iron and board they brought us also didn’t work. On day four the keys didn’t work again. I took all my dirty towels down to get new ones and also asked for something to clean with cause my room need to be cleaned but rather just do it my self and was told they can’t give me anything, ( they only do housekeeping every 7 days). IM ONLY IN TOWN FOR 7 DAYS visiting friends and family. The only reason we stayed here was for the kitchen so we could save some money on eating out. We paid almost 600 for the week only to have problems after problems. The room was paired for up front so we couldn’t afford to check out and go else where it would have taken 7-10 day to get the money back. We have stayed here many time and never had had a problem.More</t>
   </si>
   <si>
+    <t>Rodney  H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r566437129-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -329,6 +347,9 @@
     <t>We arrived at 11:15pm  to a smiling staff. Vera greeted us like family and was extremely helpful. The elevator is being replaced and she apologized several times as if it was her responsibility. Our room was very clean and extra large. The bed was very comfortable and the room was quite.I highly recommend the Bedford Extended Stay if you are in the area and need a great place with friendly people at a good price.More</t>
   </si>
   <si>
+    <t>60Grammy25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r561635740-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -359,6 +380,9 @@
     <t>Needed a refrigerator this trip that's why I made a reservation here.  When I got there the elevator was out, no ice trays in the to make ice.  Had to go down and get kitchen supplies.  Very mixed silverware and really not clean.  I didn't understand the room wasn't cleaned daily.  Just not what I expected.  Won't be staying at Extended Stay again.More</t>
   </si>
   <si>
+    <t>dots_loops</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r560142372-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -383,6 +407,9 @@
     <t>The staff is incredible , the manager can't be bothered with any guest concerns and it's evident by the look on her face when you ask a simple question or have a simple request. I asked to fax something earlier today and was told it would be $2.50 per page. A JOKE. Anyone and everyone can walk into the building a not be a guest. I went to voice my concerns over a loud guest staying next door to our room , the night staff handled it and the noise stopped.  Same issue arose a few days later around 5 am and when i went to speak with the manager , Jennifer , he response and body language was more or less , she didn't care. Find somewhere else to stay unless you like hearing constant running and loudness throughout the halls. District manager Barbara encourages guests to give good reviews to help boost business. Stay somewhere else. Not pet or family friendly at all.More</t>
   </si>
   <si>
+    <t>Dianne M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r559655667-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -407,6 +434,9 @@
     <t>Hotel staff was friendly &amp; accommodating. The hotel elevator was being serviced/repaired so all guest had to use the stairs. The only complaint is another guest's dogs were loud often barking too much. More</t>
   </si>
   <si>
+    <t>Sylvester T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r559034346-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -434,6 +464,9 @@
     <t>This location is accessible to major highway 183 and 121. Near eateries. Being an extended stay property the staff just do minimum job at making your stay remembering. The hallways and common areas are not spic and span. The manager is not a very good listener and anything brought to her attention is mainly down played.More</t>
   </si>
   <si>
+    <t>daviddC8839YX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r558119026-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -461,6 +494,9 @@
     <t>We were to be here one night. Our new residence was delayed. We stayed over a week. The staff was very accommodating . They were friendly. Gave us supplies. Gave us directions. Guided us to restaurants More</t>
   </si>
   <si>
+    <t>ambASSador283</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r557672619-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -485,6 +521,9 @@
     <t>The workers were very nice.  no coffee in room, TV was smaller than a computer monitor, wifi was not good, fitness room was very basic.  room did not feel clean.  If given the chance I will not stay there again.More</t>
   </si>
   <si>
+    <t>319kelliem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r555703572-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -512,6 +551,9 @@
     <t>Reasonable price for the quality of the room. My room was not serviced for the 4 nights I spent. I was never asked prompted about whether I would like cleaning services while I was there either. Only 3 cardio machines in the workout room.More</t>
   </si>
   <si>
+    <t>nema2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r554633688-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -536,6 +578,9 @@
     <t>Iam very satisfied with this Hotel.the staff are quick to answer and provide to all your needs.When I do get packages from online orders they make sure I get it as soon as they received them.I haven’t been to other rooms in this hotel but mine was as neat as u get from higher rated hotels.For anyone looking for a clean friendly comfortable  and affordable price then I recommend this place.More</t>
   </si>
   <si>
+    <t>Kristin S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r546227662-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -563,6 +608,9 @@
     <t>The hotel in general smelled like mildew, especially the elevators. The bathtub was leaking and the smell in there was wretched. We thought it we used the water it would eventually stop smelling so horrible, but it did not. We were unable to use the water in any of the sinks or showers while we were there. We had to purchase bottled water in the vending machine for $2 to brush our teeth, and use the hot water (from the amusingly meager "breakfast") offered in order to clean up before leaving. The staff made sure to ask me to give them 9-10 stars on the survey I would receive. They were pleasant enough as I waited to be checked in and listened to another long-term resident of the hotel talk about the police presence on the property, and how glad she was that the previous next-door neighbor had left since he was constantly screaming at himself in his room. As they finally checked me into my room, and I was pretty aware of the mistake I had made in booking such a cheap hotel. On the plus side, the bed was comfortable, and the heater worked. Next time, I'll pony up the extra $50 and stay somewhere I can shower, or maybe just wash my hands.More</t>
   </si>
   <si>
+    <t>avelinog2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r541296253-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -590,6 +638,9 @@
     <t>The service was poor with staff no care attitude.  The shower was not working, broken outlet plates, cleanliness and replacements of bathroom items never happen. When checking in I was never informed that maintaining your room with clean sheets, towels and other needs would take one week of your stay.  The walls are so thin that I could hear the person in the next room snoring.More</t>
   </si>
   <si>
+    <t>TXRVer09</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r535765048-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -638,6 +689,9 @@
     <t>My family and i have stayed at Extended stay for the past few months , i have 2 dogs . The staff has been extremely friendly and accomodating during our stay. This is one of the best pet friendly hotels my family and i have ever stayed in. Rooms are clean, nice furniture,  plenty of places to eat within walking distance and most importantly safe. I would recommend this hotel to all of my friends and family. More</t>
   </si>
   <si>
+    <t>williammN5874YS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r507645471-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -665,6 +719,9 @@
     <t>Don't stay at this hotel for less than a week if you want housekeeping or breakfast. I don't consider a packaged muffin and a granola bar as breakfast. I even asked for housekeeping to clean our room after we had been there for two days and they said you have to be staying a minimum of seven days to receive housekeeping. We even had to get our own towels. I will be sure to never stay at an extended stay hotel again.More</t>
   </si>
   <si>
+    <t>sharonbF4771DO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r505682978-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -689,6 +746,9 @@
     <t>I enjoyed the staff at the entended stay and found them to be very helpful. My grandchildren really enjoyed the pool. The grab and go breakfast was nice but the coffee was a little weak. The manger was always available to answer our questions.More</t>
   </si>
   <si>
+    <t>E8693YXstacym</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r505682963-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -704,6 +764,9 @@
     <t>Staff was very friendly, room was spacious and very clean.  We had no issues on our stay.  We only stayed for one night, so we didn't utilize kitchen area of room but kitchen was very clean and well kept.  Will stay again if in the area.More</t>
   </si>
   <si>
+    <t>jonboy41</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r505683004-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -719,6 +782,9 @@
     <t>"Breakfast" was a joke - coffee and granola bars.  Luggage Cart would barely roll.  Most of the hotel smelled bad.  TV in room was so small you could't see it from the bed.  Housekeeping didn't clean our room.More</t>
   </si>
   <si>
+    <t>heatherramsey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r502325621-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -743,6 +809,9 @@
     <t>The manager was really rude and disrespectful she need to be reported.(Jennifer garner) as well as the assistant manger she was really  unprofessional and very sarcastic I would never stay there again after that horrible experience. No sheets or towels. They need to be reported both Jennifer and Latisha   More</t>
   </si>
   <si>
+    <t>cynthiae789</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r494724767-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -770,6 +839,9 @@
     <t>Tried to check in at 1am was told I had to wait at least 45minutes due to some auditing nonsense. Then after waiting 2 hours or so we come back to check in and one of the side door towards our room was not working. We get into the room and it stunk like cigarette smoke so we had to go back and notify the staff immediately because I did not want to get charged extra fees and getting blamed for the smoke. So then we were given a separate room since the first one stunk. We get to the room and it was like 90 degrees in there so it took forever for the ac to bring the temp down to a normal temp. Then right before we were about to shower we realize there are only 2 towels, keep in mind we are a family of 4, so there is no way we can manage with only 2 towels. So there we go again going back to front desk- to ask for towels, I request extras so I can shower after I wake up so I ask for a total of 4 since we are a family of 4, and Im told no, I can only have 2 more since I already have 2 in the room. I know I have 2 towels in the room already but I want 4 more for a total of 6 so...Tried to check in at 1am was told I had to wait at least 45minutes due to some auditing nonsense. Then after waiting 2 hours or so we come back to check in and one of the side door towards our room was not working. We get into the room and it stunk like cigarette smoke so we had to go back and notify the staff immediately because I did not want to get charged extra fees and getting blamed for the smoke. So then we were given a separate room since the first one stunk. We get to the room and it was like 90 degrees in there so it took forever for the ac to bring the temp down to a normal temp. Then right before we were about to shower we realize there are only 2 towels, keep in mind we are a family of 4, so there is no way we can manage with only 2 towels. So there we go again going back to front desk- to ask for towels, I request extras so I can shower after I wake up so I ask for a total of 4 since we are a family of 4, and Im told no, I can only have 2 more since I already have 2 in the room. I know I have 2 towels in the room already but I want 4 more for a total of 6 so I can shower in about 5 hours because by now it is already past 3am and since we have to wake up by 9am or before, I want to have clean dry towels and not have to reuse them. Well, no I dont get extra towels or washcloths so I dont see why I wasnt allowed extra towels. Then I ask for ice machine and I am told this hotel doesnt have an ice machine so ok fine whatever. I then ask about breakfast and if there is milk? I am then told no, but we have creamer!!!!! I asked for milk! Not creamer!!!! So breakfast is actually only muffins, granola bars, and coffee because there is no milk, juice, cereal, or even MILK!!!!?!?! What kind of breakfast does not include milk??!?!?! Even if it is complimentary breakfast it should include milk or juice!!!! Never have I dealt with so much crap in my life with a hotel, not even motel 6 even though the last time we actually stayed at a motel was like 6 years ago because we prefer hotels. Anyways so after a few hours we wake up and get ready to check out. We get to the front office and am told I have been charged an additional $57 because supposedly thats how it always is when u check in after midnight!!!!!! We have stayed at several different hotels after midnight and never have I been charged extra!!! This hotel has been the worst ever! Totally not worth my $100 that I got charged or actually make that a grand total of $157 because of the extra charges!!!! More</t>
   </si>
   <si>
+    <t>lindawJ7566IV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r494546365-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -791,6 +863,9 @@
     <t>Smelled like cigarette smoke. No sheets blankets pillowcase for the pullout couch.  only 2 towels and there were 4 of us. Staff members were super sweet. Location was good. Not sure if i could be recommend this hotel.More</t>
   </si>
   <si>
+    <t>Gayla W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r494732057-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -806,6 +881,9 @@
     <t>Great location with easy access.  Enjoyed the pool and the AC.  Room was quiet and the bed was extremely comfortable. Laundry facilities and gym worked out great.  Jackie was fabulous.  Highly recommend for those on business or leisure and especially with families.  Restaurants and roller skate is close by along with lots of other fun opportunities.More</t>
   </si>
   <si>
+    <t>mjgolden3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r494732000-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -821,6 +899,9 @@
     <t>Hotel reservation process is klunky at best, but once you get past that, the hotel stay is much better.  I reserved my hotel room via an on-line website which advertised a Veteran's Advantage affiliation discount.  However, the correct rate was not listed on the hotel reservation, but I was assured I would receive the rate advertised at the web-site.   I did  receive the discounted rate, but it took two reminders to the hotel staff.  That was frustrating.More</t>
   </si>
   <si>
+    <t>Sybil C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r467649478-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -875,6 +956,9 @@
     <t>Great place to stay and very pet-friendly. This was a huge attraction for me. The hotel is in a great location where you can find food, shopping all around. The best part, though, is the staff. They are excellent in what they do and very knowledgeable and friendly. I never hesitated to ask a question because they always had a correct response. "Definitely two thumbs up for this hotel and their wonderful staff."More</t>
   </si>
   <si>
+    <t>danp229</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r466551845-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -893,6 +977,9 @@
     <t>I have stayed in many ESAs for work.  This ESA is my favorite.  The front desk staff is amazing (Amanda, Josh, Julie, Jackie, Gabe, Veronica).  The maintenance guy (Gary) is very friendly and resolves any maintenance issue quickly.  Housekeeping does a remarkable job.... Jared, Myra, Alicia.  All of the staff makes me feel very welcome and like I'm staying with friends.  The hotel is within walking distance to several restaurants.  Shopping is within 10 minutes driving distance.  Plenty of parking, even for Uhauls with trailers.  More</t>
   </si>
   <si>
+    <t>Tere W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r459958560-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -920,6 +1007,9 @@
     <t>The staff is friendly from everyone at the front desk to house keeping. If you need something they go out of their way to help. The room are clean. We have a 6 year old daughter and they know her by name. We recommend this hotel to others. More</t>
   </si>
   <si>
+    <t>notron11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r450973624-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -947,6 +1037,9 @@
     <t>This was an older hotel. Very clean from the outside appearance to the entire inside.  Staff was very helpful and friendly.   Inside rooms which is a must for me.got the room on Priceline for a good price.  We felt safe at this hotel. Only drawback is the room only had one bed and s pullout Couch.  Not the most comfortable beds but they got the job done.  This is an extended stay hotel with full kitchen.More</t>
   </si>
   <si>
+    <t>Chach63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r439895996-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -971,6 +1064,9 @@
     <t>We had a kitchen problem on Thanksgiving so we found a room with a kitchen. Explained the issue at check in and were assured that our room had a fully equipped kitchen - found nothing, absolutely nothing -  in the kitchen. Two trips back to the desk gave us enough plates and utensils to eat. The refrigerator made so much noise it was hard to hear the football game and melted the ice cream.  At 6:20 am doors started slamming around us with such intensity and noise that our bed was shaking. I went out to see what was happening and found house keeping getting ready to vacuum. I yelled "hey" and startled her. She was furious that I had startled her, said it was all the guests leaving who made the noise, not her and that I had scared her. I asked if it was OK that she startled me and scared me, but not ok if I startled and scared her? She quietly closed the door of the closet open behind her to prove that it wasn't her making the noise. No one entered or left the hall during the exchange. When I returned to my room the door slamming began again in earnest. Never again. More</t>
   </si>
   <si>
+    <t>Kayla M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r433592156-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -995,6 +1091,9 @@
     <t>Weekly stay was a bit more pricy than anticipated. So far so good. Hotel staff very helpful &amp;&amp; very friendly. Rooms are cozy. Non smoking policy is cool. Grab n go breakfast is the way to go. Parking is sometimes difficult, but this has been totally worth the few extra steps!More</t>
   </si>
   <si>
+    <t>Woody-in-Paris</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r422997687-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1019,6 +1118,9 @@
     <t>I tell you what, I stayed here last weekend and I was not impressed.  What did impress me was that I had a problem while I was there and the manager called me and made it right.  I can not complain about that.  If I am in the area I may give them another shot just because how they handled that issue.  They listened and solved the problem, that means a lot to me.  Kudos Ext stay Bedford.More</t>
   </si>
   <si>
+    <t>julsvaught</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r410328251-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1046,6 +1148,9 @@
     <t>The rooms look better since the renovation. Glad that they chg'd to a non smoking hotel.The following personnel that work the front desk which are:Amanda,Galina,Josh &amp; Desire (these are the ones that I have come in contact with) have a very pleasant personality &amp; disposition. People that work in housekeeping are very good no matter how the room is when they go into clean it always looks better after they have finished. Now they have a maintenance man by the name of Gary who is terrific.Not only is he good at his job he is a very polite person.If a guest has a question they may stop him for an answer to their question.he is never rude &amp; he is very patient. So this is the true facts about this hotel.I gave it a rating of Very Good because Excellent is not real.Very Good is :) :) :) :)More</t>
   </si>
   <si>
+    <t>squinn1959</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r385112629-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1071,6 +1176,9 @@
   </si>
   <si>
     <t>This was my first time to stay at an Extended Stay America hotel. The hotel and my room were clean  the place has a comfortable atmosphere but by for the best thing about our visit was the professionalism of of a young lady at the desk named Desire. We are new to town did not know where to go eat did not know our way around she was very helpful in getting us acclimated to the city. We had a special needs guest she went out of her way to make sure that our guest was well taken care of.   We will definitely come back and stay here and we do appreciate all the help she was.More</t>
+  </si>
+  <si>
+    <t>shengfan888</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r382483158-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
@@ -1599,34 +1707,38 @@
       <c r="A2" t="n">
         <v>37437</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>136001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -1643,56 +1755,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37437</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>136002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1708,56 +1824,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37437</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>2321</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1769,56 +1889,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37437</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>1029</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1830,56 +1954,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37437</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>12875</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1891,56 +2019,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37437</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>136003</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1952,56 +2084,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37437</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>136004</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="O8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -2023,56 +2159,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37437</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>136005</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2084,56 +2224,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="X9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37437</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>9033</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -2155,56 +2299,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="X10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="Y10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37437</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>136006</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -2226,56 +2374,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="X11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="Y11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37437</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>136007</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="J12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2297,56 +2449,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="Y12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37437</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>136008</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -2368,56 +2524,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="X13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="Y13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37437</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>136009</v>
+      </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="O14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -2439,56 +2599,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="X14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37437</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>136010</v>
+      </c>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="O15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2510,56 +2674,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37437</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>21880</v>
+      </c>
+      <c r="C16" t="s">
+        <v>182</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="J16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="K16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="O16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2577,56 +2745,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="X16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="Y16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37437</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>136011</v>
+      </c>
+      <c r="C17" t="s">
+        <v>192</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="J17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="K17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2648,56 +2820,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="X17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="Y17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37437</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>136012</v>
+      </c>
+      <c r="C18" t="s">
+        <v>202</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="J18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="L18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="O18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -2715,56 +2891,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="X18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Y18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37437</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>136004</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="J19" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="K19" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2776,56 +2956,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="X19" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="Y19" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37437</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>136013</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="K20" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="O20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
@@ -2847,56 +3031,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="X20" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="Y20" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37437</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>136014</v>
+      </c>
+      <c r="C21" t="s">
+        <v>229</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="J21" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="K21" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="O21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -2918,56 +3106,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="X21" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="Y21" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37437</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>136015</v>
+      </c>
+      <c r="C22" t="s">
+        <v>238</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="J22" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="K22" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="L22" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="O22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2989,56 +3181,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="X22" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="Y22" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37437</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>136016</v>
+      </c>
+      <c r="C23" t="s">
+        <v>244</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="J23" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="K23" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="L23" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="O23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -3060,56 +3256,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="X23" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="Y23" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37437</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>136017</v>
+      </c>
+      <c r="C24" t="s">
+        <v>250</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="J24" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="L24" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="O24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3121,56 +3321,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="X24" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="Y24" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37437</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>136018</v>
+      </c>
+      <c r="C25" t="s">
+        <v>259</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="J25" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="K25" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="L25" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="O25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -3192,56 +3396,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="X25" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="Y25" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37437</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>136019</v>
+      </c>
+      <c r="C26" t="s">
+        <v>269</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="J26" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="K26" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="L26" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="O26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -3263,56 +3471,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="X26" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="Y26" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37437</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>136020</v>
+      </c>
+      <c r="C27" t="s">
+        <v>277</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="J27" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="K27" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="L27" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="O27" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3334,56 +3546,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="X27" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="Y27" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37437</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>136021</v>
+      </c>
+      <c r="C28" t="s">
+        <v>283</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="J28" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="K28" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="L28" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="O28" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -3405,56 +3621,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="X28" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="Y28" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37437</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>136022</v>
+      </c>
+      <c r="C29" t="s">
+        <v>289</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="J29" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="K29" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="L29" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="O29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -3470,56 +3690,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="X29" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="Y29" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37437</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>136001</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="J30" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="K30" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="L30" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3535,56 +3759,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="X30" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="Y30" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37437</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>136023</v>
+      </c>
+      <c r="C31" t="s">
+        <v>308</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="J31" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="K31" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="L31" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="O31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3596,56 +3824,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="X31" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="Y31" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37437</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>136024</v>
+      </c>
+      <c r="C32" t="s">
+        <v>315</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="J32" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="K32" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="L32" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="O32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3657,56 +3889,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="X32" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="Y32" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37437</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>136025</v>
+      </c>
+      <c r="C33" t="s">
+        <v>325</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="J33" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="K33" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="L33" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="O33" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3718,56 +3954,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="X33" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="Y33" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37437</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>136026</v>
+      </c>
+      <c r="C34" t="s">
+        <v>335</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="J34" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="K34" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="L34" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="O34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3779,56 +4019,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="X34" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="Y34" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37437</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>49187</v>
+      </c>
+      <c r="C35" t="s">
+        <v>344</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="J35" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="K35" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="L35" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="O35" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -3840,56 +4084,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="X35" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="Y35" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37437</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>136027</v>
+      </c>
+      <c r="C36" t="s">
+        <v>353</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="J36" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="K36" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="L36" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="O36" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3901,56 +4149,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="X36" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="Y36" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37437</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>136028</v>
+      </c>
+      <c r="C37" t="s">
+        <v>362</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="J37" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="K37" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="L37" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="O37" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -3966,56 +4218,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="X37" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="Y37" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37437</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>136029</v>
+      </c>
+      <c r="C38" t="s">
+        <v>372</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="J38" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="K38" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="L38" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4027,56 +4283,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="X38" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="Y38" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37437</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>136030</v>
+      </c>
+      <c r="C39" t="s">
+        <v>382</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="J39" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="K39" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="L39" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="O39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -4094,13 +4354,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="X39" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="Y39" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_213.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_213.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="355">
   <si>
     <t>STR#</t>
   </si>
@@ -147,10 +147,7 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>larrycordova</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/19/2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r574069023-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
@@ -197,7 +194,397 @@
 the last room we had had a recliner in it very Nice yup not this one, when i asked about it she told me you got a deluxe room and you needed to book a studio room. well i have had both and not much of a difference as far as I can tell, well i guess the sofa pulls out to a bed but I have a bed ! give me my recliner i want to feel like...This is one sad property,No, Elevator is on thing and bad enough you have to carry all your stuff up 3 flights of stairs.after I checked in i asked here where the luggage cart was she told me i got it loaded up came back in and she tells me the elevator is out and the stairs are a million miles away plus having to carry all this stuff up the stairs is bad enough, poor guys before me had to carry up all of there work tools so nobody would steal there stuff!then after check in and the hiking journey from hell !! i go back down stairs and ask for kitchen equipment you know to prepare meal and cook with.nope none. every other extended stay has cups, silverware, pot, pans, coffee maker coffee mugs, dishes side dishes, toaster etc. kind of like home yup 300 dollars worth of groceries an i cant make one meal.the last room we had had a recliner in it very Nice yup not this one, when i asked about it she told me you got a deluxe room and you needed to book a studio room. well i have had both and not much of a difference as far as I can tell, well i guess the sofa pulls out to a bed but I have a bed ! give me my recliner i want to feel like Home!i guess ill have to bring mine next time.so we get into the room and there is this letter that says from the manger how wonderful it is to have you and we are here to make your stay as comfortable as possible and blah blah blah. i ask how do i get in touch with here and the front desk response was she is to busy to hear your complaints she has been hearing them all before !ok thanks for that and i guess we write a letter to corporate now maybe they wont respond as well.I'm certainly disappointed with this property i have experienced this company before we have brought large groups with us when we open our restaurants, don't think I'll be doing that in the future.well good luck on this fine property making any great moves! I'll just have to suck it up.man i really hate wasting time on reviews like this if the people and company do what they are supposed to i would not be wasting my time with this stuff but you need to know be aware my friends. love all the pic by the way showing happy customers, and staff members giving keys and all the friendly we care stuff ya right !More</t>
   </si>
   <si>
-    <t>Agent_Gillispie</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r574049588-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>574049588</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>Staff is great, especially Ashley she is very helpful! Clean rooms. Quiet comfortable place. We stay here whenever we're in town for work! Wifi could be a little better and we just wished the elevator worked!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded April 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2018</t>
+  </si>
+  <si>
+    <t>Staff is great, especially Ashley she is very helpful! Clean rooms. Quiet comfortable place. We stay here whenever we're in town for work! Wifi could be a little better and we just wished the elevator worked!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r569535289-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>569535289</t>
+  </si>
+  <si>
+    <t>03/29/2018</t>
+  </si>
+  <si>
+    <t>Rob Rowe</t>
+  </si>
+  <si>
+    <t>Awesome place to stay. Rooms are always clean with plenty of room. Staff is amazing and very kind. Ashley, Lisa, Vivian and Jennifer are very professional and accommodating with all needs. I would recommend to anyone. They are the BEST!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded March 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2018</t>
+  </si>
+  <si>
+    <t>Awesome place to stay. Rooms are always clean with plenty of room. Staff is amazing and very kind. Ashley, Lisa, Vivian and Jennifer are very professional and accommodating with all needs. I would recommend to anyone. They are the BEST!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r566711471-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>566711471</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>Use to be great but not any more</t>
+  </si>
+  <si>
+    <t>At check in we waited 10 min before someone said anything to us and that was only after I asked if we should come back or would be able to check in (it was 3pm). We get to the room the keys don’t work, is irritating because during our stay the elevator was being worked on the whole time. On the second day the door handle fell off the bathroom door along with the towel hook as well. The iron and ironing board was broken. There’s a spot by the sofa that smells of pee. We also noticed the sink and tub faucets would spit out rust and metal shaving while you showered, took a bath or brushed your teeth. House keeping came and cleaned so that was great, but they took all the dirty dishes from the room and left us with nothing. So my husband went down the next day to get new dishes so I could cook and they gave a hard time about getting new ones because they have already given us some. The micro wave had rust in it.  On the third day we got woken up early from the maintenance on the elevator, our room was right in front of it. I went down stairs to ask the front desk clerk if we could switch room to something further down the hall because of the noise. She walk away to get the manager and...At check in we waited 10 min before someone said anything to us and that was only after I asked if we should come back or would be able to check in (it was 3pm). We get to the room the keys don’t work, is irritating because during our stay the elevator was being worked on the whole time. On the second day the door handle fell off the bathroom door along with the towel hook as well. The iron and ironing board was broken. There’s a spot by the sofa that smells of pee. We also noticed the sink and tub faucets would spit out rust and metal shaving while you showered, took a bath or brushed your teeth. House keeping came and cleaned so that was great, but they took all the dirty dishes from the room and left us with nothing. So my husband went down the next day to get new dishes so I could cook and they gave a hard time about getting new ones because they have already given us some. The micro wave had rust in it.  On the third day we got woken up early from the maintenance on the elevator, our room was right in front of it. I went down stairs to ask the front desk clerk if we could switch room to something further down the hall because of the noise. She walk away to get the manager and the manager say they don’t have anything, she didn’t even look to see and it was at 9am went I asked. I asked if she would have anything the next day she said probably but she not sure once again not even looking in the system. So at that point I told her all the problems we where having so the maintenance man could take care of the problems. The handle and towel hook got fixed the same day so that was great. The new  iron and board they brought us also didn’t work. On day four the keys didn’t work again. I took all my dirty towels down to get new ones and also asked for something to clean with cause my room need to be cleaned but rather just do it my self and was told they can’t give me anything, ( they only do housekeeping every 7 days). IM ONLY IN TOWN FOR 7 DAYS visiting friends and family. The only reason we stayed here was for the kitchen so we could save some money on eating out. We paid almost 600 for the week only to have problems after problems. The room was paired for up front so we couldn’t afford to check out and go else where it would have taken 7-10 day to get the money back. We have stayed here many time and never had had a problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded March 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2018</t>
+  </si>
+  <si>
+    <t>At check in we waited 10 min before someone said anything to us and that was only after I asked if we should come back or would be able to check in (it was 3pm). We get to the room the keys don’t work, is irritating because during our stay the elevator was being worked on the whole time. On the second day the door handle fell off the bathroom door along with the towel hook as well. The iron and ironing board was broken. There’s a spot by the sofa that smells of pee. We also noticed the sink and tub faucets would spit out rust and metal shaving while you showered, took a bath or brushed your teeth. House keeping came and cleaned so that was great, but they took all the dirty dishes from the room and left us with nothing. So my husband went down the next day to get new dishes so I could cook and they gave a hard time about getting new ones because they have already given us some. The micro wave had rust in it.  On the third day we got woken up early from the maintenance on the elevator, our room was right in front of it. I went down stairs to ask the front desk clerk if we could switch room to something further down the hall because of the noise. She walk away to get the manager and...At check in we waited 10 min before someone said anything to us and that was only after I asked if we should come back or would be able to check in (it was 3pm). We get to the room the keys don’t work, is irritating because during our stay the elevator was being worked on the whole time. On the second day the door handle fell off the bathroom door along with the towel hook as well. The iron and ironing board was broken. There’s a spot by the sofa that smells of pee. We also noticed the sink and tub faucets would spit out rust and metal shaving while you showered, took a bath or brushed your teeth. House keeping came and cleaned so that was great, but they took all the dirty dishes from the room and left us with nothing. So my husband went down the next day to get new dishes so I could cook and they gave a hard time about getting new ones because they have already given us some. The micro wave had rust in it.  On the third day we got woken up early from the maintenance on the elevator, our room was right in front of it. I went down stairs to ask the front desk clerk if we could switch room to something further down the hall because of the noise. She walk away to get the manager and the manager say they don’t have anything, she didn’t even look to see and it was at 9am went I asked. I asked if she would have anything the next day she said probably but she not sure once again not even looking in the system. So at that point I told her all the problems we where having so the maintenance man could take care of the problems. The handle and towel hook got fixed the same day so that was great. The new  iron and board they brought us also didn’t work. On day four the keys didn’t work again. I took all my dirty towels down to get new ones and also asked for something to clean with cause my room need to be cleaned but rather just do it my self and was told they can’t give me anything, ( they only do housekeeping every 7 days). IM ONLY IN TOWN FOR 7 DAYS visiting friends and family. The only reason we stayed here was for the kitchen so we could save some money on eating out. We paid almost 600 for the week only to have problems after problems. The room was paired for up front so we couldn’t afford to check out and go else where it would have taken 7-10 day to get the money back. We have stayed here many time and never had had a problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r566437129-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>566437129</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>Great place...</t>
+  </si>
+  <si>
+    <t>We arrived at 11:15pm  to a smiling staff. Vera greeted us like family and was extremely helpful. The elevator is being replaced and she apologized several times as if it was her responsibility. Our room was very clean and extra large. The bed was very comfortable and the room was quite.I highly recommend the Bedford Extended Stay if you are in the area and need a great place with friendly people at a good price.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded March 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2018</t>
+  </si>
+  <si>
+    <t>We arrived at 11:15pm  to a smiling staff. Vera greeted us like family and was extremely helpful. The elevator is being replaced and she apologized several times as if it was her responsibility. Our room was very clean and extra large. The bed was very comfortable and the room was quite.I highly recommend the Bedford Extended Stay if you are in the area and need a great place with friendly people at a good price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r561635740-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>561635740</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>Not again</t>
+  </si>
+  <si>
+    <t>Needed a refrigerator this trip that's why I made a reservation here.  When I got there the elevator was out, no ice trays in the to make ice.  Had to go down and get kitchen supplies.  Very mixed silverware and really not clean.  I didn't understand the room wasn't cleaned daily.  Just not what I expected.  Won't be staying at Extended Stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Needed a refrigerator this trip that's why I made a reservation here.  When I got there the elevator was out, no ice trays in the to make ice.  Had to go down and get kitchen supplies.  Very mixed silverware and really not clean.  I didn't understand the room wasn't cleaned daily.  Just not what I expected.  Won't be staying at Extended Stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r560142372-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>560142372</t>
+  </si>
+  <si>
+    <t>02/12/2018</t>
+  </si>
+  <si>
+    <t>There wasn't an option to rate this place a 0</t>
+  </si>
+  <si>
+    <t>The staff is incredible , the manager can't be bothered with any guest concerns and it's evident by the look on her face when you ask a simple question or have a simple request. I asked to fax something earlier today and was told it would be $2.50 per page. A JOKE. Anyone and everyone can walk into the building a not be a guest. I went to voice my concerns over a loud guest staying next door to our room , the night staff handled it and the noise stopped.  Same issue arose a few days later around 5 am and when i went to speak with the manager , Jennifer , he response and body language was more or less , she didn't care. Find somewhere else to stay unless you like hearing constant running and loudness throughout the halls. District manager Barbara encourages guests to give good reviews to help boost business. Stay somewhere else. Not pet or family friendly at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded February 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2018</t>
+  </si>
+  <si>
+    <t>The staff is incredible , the manager can't be bothered with any guest concerns and it's evident by the look on her face when you ask a simple question or have a simple request. I asked to fax something earlier today and was told it would be $2.50 per page. A JOKE. Anyone and everyone can walk into the building a not be a guest. I went to voice my concerns over a loud guest staying next door to our room , the night staff handled it and the noise stopped.  Same issue arose a few days later around 5 am and when i went to speak with the manager , Jennifer , he response and body language was more or less , she didn't care. Find somewhere else to stay unless you like hearing constant running and loudness throughout the halls. District manager Barbara encourages guests to give good reviews to help boost business. Stay somewhere else. Not pet or family friendly at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r559655667-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>559655667</t>
+  </si>
+  <si>
+    <t>02/10/2018</t>
+  </si>
+  <si>
+    <t>Friendly staff. Accommodating &amp; attentive.</t>
+  </si>
+  <si>
+    <t>Hotel staff was friendly &amp; accommodating. The hotel elevator was being serviced/repaired so all guest had to use the stairs. The only complaint is another guest's dogs were loud often barking too much. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded February 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2018</t>
+  </si>
+  <si>
+    <t>Hotel staff was friendly &amp; accommodating. The hotel elevator was being serviced/repaired so all guest had to use the stairs. The only complaint is another guest's dogs were loud often barking too much. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r559034346-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>559034346</t>
+  </si>
+  <si>
+    <t>02/07/2018</t>
+  </si>
+  <si>
+    <t>Destination Fort Worth</t>
+  </si>
+  <si>
+    <t>This location is accessible to major highway 183 and 121. Near eateries. Being an extended stay property the staff just do minimum job at making your stay remembering. The hallways and common areas are not spic and span. The manager is not a very good listener and anything brought to her attention is mainly down played.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded February 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2018</t>
+  </si>
+  <si>
+    <t>This location is accessible to major highway 183 and 121. Near eateries. Being an extended stay property the staff just do minimum job at making your stay remembering. The hallways and common areas are not spic and span. The manager is not a very good listener and anything brought to her attention is mainly down played.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r558119026-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>558119026</t>
+  </si>
+  <si>
+    <t>02/03/2018</t>
+  </si>
+  <si>
+    <t>Move from Indiana . We traveled in to stay one night. Our  we residence was delayed several days . (Over a week)</t>
+  </si>
+  <si>
+    <t>We were to be here one night. Our new residence was delayed. We stayed over a week. The staff was very accommodating . They were friendly. Gave us supplies. Gave us directions. Guided us to restaurants MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded February 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2018</t>
+  </si>
+  <si>
+    <t>We were to be here one night. Our new residence was delayed. We stayed over a week. The staff was very accommodating . They were friendly. Gave us supplies. Gave us directions. Guided us to restaurants More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r557672619-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>557672619</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>basic, would not stay again</t>
+  </si>
+  <si>
+    <t>The workers were very nice.  no coffee in room, TV was smaller than a computer monitor, wifi was not good, fitness room was very basic.  room did not feel clean.  If given the chance I will not stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded February 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2018</t>
+  </si>
+  <si>
+    <t>The workers were very nice.  no coffee in room, TV was smaller than a computer monitor, wifi was not good, fitness room was very basic.  room did not feel clean.  If given the chance I will not stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r555703572-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>555703572</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>It was okay...</t>
+  </si>
+  <si>
+    <t>Reasonable price for the quality of the room. My room was not serviced for the 4 nights I spent. I was never asked prompted about whether I would like cleaning services while I was there either. Only 3 cardio machines in the workout room.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Reasonable price for the quality of the room. My room was not serviced for the 4 nights I spent. I was never asked prompted about whether I would like cleaning services while I was there either. Only 3 cardio machines in the workout room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r554633688-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>554633688</t>
+  </si>
+  <si>
+    <t>01/18/2018</t>
+  </si>
+  <si>
+    <t>Extended stay America</t>
+  </si>
+  <si>
+    <t>Iam very satisfied with this Hotel.the staff are quick to answer and provide to all your needs.When I do get packages from online orders they make sure I get it as soon as they received them.I haven’t been to other rooms in this hotel but mine was as neat as u get from higher rated hotels.For anyone looking for a clean friendly comfortable  and affordable price then I recommend this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded January 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2018</t>
+  </si>
+  <si>
+    <t>Iam very satisfied with this Hotel.the staff are quick to answer and provide to all your needs.When I do get packages from online orders they make sure I get it as soon as they received them.I haven’t been to other rooms in this hotel but mine was as neat as u get from higher rated hotels.For anyone looking for a clean friendly comfortable  and affordable price then I recommend this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r546227662-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>546227662</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>The hotel in general smelled like mildew, especially the elevators. The bathtub was leaking and the smell in there was wretched. We thought it we used the water it would eventually stop smelling so horrible, but it did not. We were unable to use the water in any of the sinks or showers while we were there. We had to purchase bottled water in the vending machine for $2 to brush our teeth, and use the hot water (from the amusingly meager "breakfast") offered in order to clean up before leaving. The staff made sure to ask me to give them 9-10 stars on the survey I would receive. They were pleasant enough as I waited to be checked in and listened to another long-term resident of the hotel talk about the police presence on the property, and how glad she was that the previous next-door neighbor had left since he was constantly screaming at himself in his room. As they finally checked me into my room, and I was pretty aware of the mistake I had made in booking such a cheap hotel. On the plus side, the bed was comfortable, and the heater worked. Next time, I'll pony up the extra $50 and stay somewhere I can shower, or maybe just wash my hands.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded December 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2017</t>
+  </si>
+  <si>
+    <t>The hotel in general smelled like mildew, especially the elevators. The bathtub was leaking and the smell in there was wretched. We thought it we used the water it would eventually stop smelling so horrible, but it did not. We were unable to use the water in any of the sinks or showers while we were there. We had to purchase bottled water in the vending machine for $2 to brush our teeth, and use the hot water (from the amusingly meager "breakfast") offered in order to clean up before leaving. The staff made sure to ask me to give them 9-10 stars on the survey I would receive. They were pleasant enough as I waited to be checked in and listened to another long-term resident of the hotel talk about the police presence on the property, and how glad she was that the previous next-door neighbor had left since he was constantly screaming at himself in his room. As they finally checked me into my room, and I was pretty aware of the mistake I had made in booking such a cheap hotel. On the plus side, the bed was comfortable, and the heater worked. Next time, I'll pony up the extra $50 and stay somewhere I can shower, or maybe just wash my hands.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r541296253-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>541296253</t>
+  </si>
+  <si>
+    <t>11/15/2017</t>
+  </si>
+  <si>
+    <t>THIN WALLS</t>
+  </si>
+  <si>
+    <t>The service was poor with staff no care attitude.  The shower was not working, broken outlet plates, cleanliness and replacements of bathroom items never happen. When checking in I was never informed that maintaining your room with clean sheets, towels and other needs would take one week of your stay.  The walls are so thin that I could hear the person in the next room snoring.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded November 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2017</t>
+  </si>
+  <si>
+    <t>The service was poor with staff no care attitude.  The shower was not working, broken outlet plates, cleanliness and replacements of bathroom items never happen. When checking in I was never informed that maintaining your room with clean sheets, towels and other needs would take one week of your stay.  The walls are so thin that I could hear the person in the next room snoring.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r535765048-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>535765048</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>Large clean comfortable rooms</t>
+  </si>
+  <si>
+    <t>This Extended Stay has been downgraded, so don't expect for find any cooking or eating utensils.  The Staff was quite friendly and accommodating.Slamming doors can be a problem.   Room doors are spring loaded and make a horrible  slamming noise, so don't expect a nap or  an early sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded October 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2017</t>
+  </si>
+  <si>
+    <t>This Extended Stay has been downgraded, so don't expect for find any cooking or eating utensils.  The Staff was quite friendly and accommodating.Slamming doors can be a problem.   Room doors are spring loaded and make a horrible  slamming noise, so don't expect a nap or  an early sleep.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r510221225-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
@@ -218,9 +605,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded August 9, 2017</t>
   </si>
   <si>
@@ -230,441 +614,6 @@
     <t>I will book the Extended Stay when it comes time for me to travel again. It is an excellent hotel for the money that you spend. The staff is very courteous and knowledgeable. The rooms are very clean and comfortable. I even love going to the workout room as it has the equipment I like to use. The Extended Stay is a great place to stay.More</t>
   </si>
   <si>
-    <t>Nicole F</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r574049588-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
-  </si>
-  <si>
-    <t>574049588</t>
-  </si>
-  <si>
-    <t>Nice place</t>
-  </si>
-  <si>
-    <t>Staff is great, especially Ashley she is very helpful! Clean rooms. Quiet comfortable place. We stay here whenever we're in town for work! Wifi could be a little better and we just wished the elevator worked!!!!MoreShow less</t>
-  </si>
-  <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded April 17, 2018</t>
-  </si>
-  <si>
-    <t>Responded April 17, 2018</t>
-  </si>
-  <si>
-    <t>Staff is great, especially Ashley she is very helpful! Clean rooms. Quiet comfortable place. We stay here whenever we're in town for work! Wifi could be a little better and we just wished the elevator worked!!!!More</t>
-  </si>
-  <si>
-    <t>Robert R</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r569535289-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
-  </si>
-  <si>
-    <t>569535289</t>
-  </si>
-  <si>
-    <t>03/29/2018</t>
-  </si>
-  <si>
-    <t>Rob Rowe</t>
-  </si>
-  <si>
-    <t>Awesome place to stay. Rooms are always clean with plenty of room. Staff is amazing and very kind. Ashley, Lisa, Vivian and Jennifer are very professional and accommodating with all needs. I would recommend to anyone. They are the BEST!MoreShow less</t>
-  </si>
-  <si>
-    <t>March 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded March 30, 2018</t>
-  </si>
-  <si>
-    <t>Responded March 30, 2018</t>
-  </si>
-  <si>
-    <t>Awesome place to stay. Rooms are always clean with plenty of room. Staff is amazing and very kind. Ashley, Lisa, Vivian and Jennifer are very professional and accommodating with all needs. I would recommend to anyone. They are the BEST!More</t>
-  </si>
-  <si>
-    <t>Denise M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r566711471-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
-  </si>
-  <si>
-    <t>566711471</t>
-  </si>
-  <si>
-    <t>03/15/2018</t>
-  </si>
-  <si>
-    <t>Use to be great but not any more</t>
-  </si>
-  <si>
-    <t>At check in we waited 10 min before someone said anything to us and that was only after I asked if we should come back or would be able to check in (it was 3pm). We get to the room the keys don’t work, is irritating because during our stay the elevator was being worked on the whole time. On the second day the door handle fell off the bathroom door along with the towel hook as well. The iron and ironing board was broken. There’s a spot by the sofa that smells of pee. We also noticed the sink and tub faucets would spit out rust and metal shaving while you showered, took a bath or brushed your teeth. House keeping came and cleaned so that was great, but they took all the dirty dishes from the room and left us with nothing. So my husband went down the next day to get new dishes so I could cook and they gave a hard time about getting new ones because they have already given us some. The micro wave had rust in it.  On the third day we got woken up early from the maintenance on the elevator, our room was right in front of it. I went down stairs to ask the front desk clerk if we could switch room to something further down the hall because of the noise. She walk away to get the manager and...At check in we waited 10 min before someone said anything to us and that was only after I asked if we should come back or would be able to check in (it was 3pm). We get to the room the keys don’t work, is irritating because during our stay the elevator was being worked on the whole time. On the second day the door handle fell off the bathroom door along with the towel hook as well. The iron and ironing board was broken. There’s a spot by the sofa that smells of pee. We also noticed the sink and tub faucets would spit out rust and metal shaving while you showered, took a bath or brushed your teeth. House keeping came and cleaned so that was great, but they took all the dirty dishes from the room and left us with nothing. So my husband went down the next day to get new dishes so I could cook and they gave a hard time about getting new ones because they have already given us some. The micro wave had rust in it.  On the third day we got woken up early from the maintenance on the elevator, our room was right in front of it. I went down stairs to ask the front desk clerk if we could switch room to something further down the hall because of the noise. She walk away to get the manager and the manager say they don’t have anything, she didn’t even look to see and it was at 9am went I asked. I asked if she would have anything the next day she said probably but she not sure once again not even looking in the system. So at that point I told her all the problems we where having so the maintenance man could take care of the problems. The handle and towel hook got fixed the same day so that was great. The new  iron and board they brought us also didn’t work. On day four the keys didn’t work again. I took all my dirty towels down to get new ones and also asked for something to clean with cause my room need to be cleaned but rather just do it my self and was told they can’t give me anything, ( they only do housekeeping every 7 days). IM ONLY IN TOWN FOR 7 DAYS visiting friends and family. The only reason we stayed here was for the kitchen so we could save some money on eating out. We paid almost 600 for the week only to have problems after problems. The room was paired for up front so we couldn’t afford to check out and go else where it would have taken 7-10 day to get the money back. We have stayed here many time and never had had a problem.MoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded March 16, 2018</t>
-  </si>
-  <si>
-    <t>Responded March 16, 2018</t>
-  </si>
-  <si>
-    <t>At check in we waited 10 min before someone said anything to us and that was only after I asked if we should come back or would be able to check in (it was 3pm). We get to the room the keys don’t work, is irritating because during our stay the elevator was being worked on the whole time. On the second day the door handle fell off the bathroom door along with the towel hook as well. The iron and ironing board was broken. There’s a spot by the sofa that smells of pee. We also noticed the sink and tub faucets would spit out rust and metal shaving while you showered, took a bath or brushed your teeth. House keeping came and cleaned so that was great, but they took all the dirty dishes from the room and left us with nothing. So my husband went down the next day to get new dishes so I could cook and they gave a hard time about getting new ones because they have already given us some. The micro wave had rust in it.  On the third day we got woken up early from the maintenance on the elevator, our room was right in front of it. I went down stairs to ask the front desk clerk if we could switch room to something further down the hall because of the noise. She walk away to get the manager and...At check in we waited 10 min before someone said anything to us and that was only after I asked if we should come back or would be able to check in (it was 3pm). We get to the room the keys don’t work, is irritating because during our stay the elevator was being worked on the whole time. On the second day the door handle fell off the bathroom door along with the towel hook as well. The iron and ironing board was broken. There’s a spot by the sofa that smells of pee. We also noticed the sink and tub faucets would spit out rust and metal shaving while you showered, took a bath or brushed your teeth. House keeping came and cleaned so that was great, but they took all the dirty dishes from the room and left us with nothing. So my husband went down the next day to get new dishes so I could cook and they gave a hard time about getting new ones because they have already given us some. The micro wave had rust in it.  On the third day we got woken up early from the maintenance on the elevator, our room was right in front of it. I went down stairs to ask the front desk clerk if we could switch room to something further down the hall because of the noise. She walk away to get the manager and the manager say they don’t have anything, she didn’t even look to see and it was at 9am went I asked. I asked if she would have anything the next day she said probably but she not sure once again not even looking in the system. So at that point I told her all the problems we where having so the maintenance man could take care of the problems. The handle and towel hook got fixed the same day so that was great. The new  iron and board they brought us also didn’t work. On day four the keys didn’t work again. I took all my dirty towels down to get new ones and also asked for something to clean with cause my room need to be cleaned but rather just do it my self and was told they can’t give me anything, ( they only do housekeeping every 7 days). IM ONLY IN TOWN FOR 7 DAYS visiting friends and family. The only reason we stayed here was for the kitchen so we could save some money on eating out. We paid almost 600 for the week only to have problems after problems. The room was paired for up front so we couldn’t afford to check out and go else where it would have taken 7-10 day to get the money back. We have stayed here many time and never had had a problem.More</t>
-  </si>
-  <si>
-    <t>Rodney  H</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r566437129-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
-  </si>
-  <si>
-    <t>566437129</t>
-  </si>
-  <si>
-    <t>03/14/2018</t>
-  </si>
-  <si>
-    <t>Great place...</t>
-  </si>
-  <si>
-    <t>We arrived at 11:15pm  to a smiling staff. Vera greeted us like family and was extremely helpful. The elevator is being replaced and she apologized several times as if it was her responsibility. Our room was very clean and extra large. The bed was very comfortable and the room was quite.I highly recommend the Bedford Extended Stay if you are in the area and need a great place with friendly people at a good price.MoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded March 14, 2018</t>
-  </si>
-  <si>
-    <t>Responded March 14, 2018</t>
-  </si>
-  <si>
-    <t>We arrived at 11:15pm  to a smiling staff. Vera greeted us like family and was extremely helpful. The elevator is being replaced and she apologized several times as if it was her responsibility. Our room was very clean and extra large. The bed was very comfortable and the room was quite.I highly recommend the Bedford Extended Stay if you are in the area and need a great place with friendly people at a good price.More</t>
-  </si>
-  <si>
-    <t>60Grammy25</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r561635740-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
-  </si>
-  <si>
-    <t>561635740</t>
-  </si>
-  <si>
-    <t>02/19/2018</t>
-  </si>
-  <si>
-    <t>Not again</t>
-  </si>
-  <si>
-    <t>Needed a refrigerator this trip that's why I made a reservation here.  When I got there the elevator was out, no ice trays in the to make ice.  Had to go down and get kitchen supplies.  Very mixed silverware and really not clean.  I didn't understand the room wasn't cleaned daily.  Just not what I expected.  Won't be staying at Extended Stay again.MoreShow less</t>
-  </si>
-  <si>
-    <t>February 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded February 20, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 20, 2018</t>
-  </si>
-  <si>
-    <t>Needed a refrigerator this trip that's why I made a reservation here.  When I got there the elevator was out, no ice trays in the to make ice.  Had to go down and get kitchen supplies.  Very mixed silverware and really not clean.  I didn't understand the room wasn't cleaned daily.  Just not what I expected.  Won't be staying at Extended Stay again.More</t>
-  </si>
-  <si>
-    <t>dots_loops</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r560142372-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
-  </si>
-  <si>
-    <t>560142372</t>
-  </si>
-  <si>
-    <t>02/12/2018</t>
-  </si>
-  <si>
-    <t>There wasn't an option to rate this place a 0</t>
-  </si>
-  <si>
-    <t>The staff is incredible , the manager can't be bothered with any guest concerns and it's evident by the look on her face when you ask a simple question or have a simple request. I asked to fax something earlier today and was told it would be $2.50 per page. A JOKE. Anyone and everyone can walk into the building a not be a guest. I went to voice my concerns over a loud guest staying next door to our room , the night staff handled it and the noise stopped.  Same issue arose a few days later around 5 am and when i went to speak with the manager , Jennifer , he response and body language was more or less , she didn't care. Find somewhere else to stay unless you like hearing constant running and loudness throughout the halls. District manager Barbara encourages guests to give good reviews to help boost business. Stay somewhere else. Not pet or family friendly at all.MoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded February 13, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 13, 2018</t>
-  </si>
-  <si>
-    <t>The staff is incredible , the manager can't be bothered with any guest concerns and it's evident by the look on her face when you ask a simple question or have a simple request. I asked to fax something earlier today and was told it would be $2.50 per page. A JOKE. Anyone and everyone can walk into the building a not be a guest. I went to voice my concerns over a loud guest staying next door to our room , the night staff handled it and the noise stopped.  Same issue arose a few days later around 5 am and when i went to speak with the manager , Jennifer , he response and body language was more or less , she didn't care. Find somewhere else to stay unless you like hearing constant running and loudness throughout the halls. District manager Barbara encourages guests to give good reviews to help boost business. Stay somewhere else. Not pet or family friendly at all.More</t>
-  </si>
-  <si>
-    <t>Dianne M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r559655667-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
-  </si>
-  <si>
-    <t>559655667</t>
-  </si>
-  <si>
-    <t>02/10/2018</t>
-  </si>
-  <si>
-    <t>Friendly staff. Accommodating &amp; attentive.</t>
-  </si>
-  <si>
-    <t>Hotel staff was friendly &amp; accommodating. The hotel elevator was being serviced/repaired so all guest had to use the stairs. The only complaint is another guest's dogs were loud often barking too much. MoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded February 11, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 11, 2018</t>
-  </si>
-  <si>
-    <t>Hotel staff was friendly &amp; accommodating. The hotel elevator was being serviced/repaired so all guest had to use the stairs. The only complaint is another guest's dogs were loud often barking too much. More</t>
-  </si>
-  <si>
-    <t>Sylvester T</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r559034346-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
-  </si>
-  <si>
-    <t>559034346</t>
-  </si>
-  <si>
-    <t>02/07/2018</t>
-  </si>
-  <si>
-    <t>Destination Fort Worth</t>
-  </si>
-  <si>
-    <t>This location is accessible to major highway 183 and 121. Near eateries. Being an extended stay property the staff just do minimum job at making your stay remembering. The hallways and common areas are not spic and span. The manager is not a very good listener and anything brought to her attention is mainly down played.MoreShow less</t>
-  </si>
-  <si>
-    <t>October 2017</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded February 8, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 8, 2018</t>
-  </si>
-  <si>
-    <t>This location is accessible to major highway 183 and 121. Near eateries. Being an extended stay property the staff just do minimum job at making your stay remembering. The hallways and common areas are not spic and span. The manager is not a very good listener and anything brought to her attention is mainly down played.More</t>
-  </si>
-  <si>
-    <t>daviddC8839YX</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r558119026-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
-  </si>
-  <si>
-    <t>558119026</t>
-  </si>
-  <si>
-    <t>02/03/2018</t>
-  </si>
-  <si>
-    <t>Move from Indiana . We traveled in to stay one night. Our  we residence was delayed several days . (Over a week)</t>
-  </si>
-  <si>
-    <t>We were to be here one night. Our new residence was delayed. We stayed over a week. The staff was very accommodating . They were friendly. Gave us supplies. Gave us directions. Guided us to restaurants MoreShow less</t>
-  </si>
-  <si>
-    <t>January 2018</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded February 3, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 3, 2018</t>
-  </si>
-  <si>
-    <t>We were to be here one night. Our new residence was delayed. We stayed over a week. The staff was very accommodating . They were friendly. Gave us supplies. Gave us directions. Guided us to restaurants More</t>
-  </si>
-  <si>
-    <t>ambASSador283</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r557672619-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
-  </si>
-  <si>
-    <t>557672619</t>
-  </si>
-  <si>
-    <t>01/31/2018</t>
-  </si>
-  <si>
-    <t>basic, would not stay again</t>
-  </si>
-  <si>
-    <t>The workers were very nice.  no coffee in room, TV was smaller than a computer monitor, wifi was not good, fitness room was very basic.  room did not feel clean.  If given the chance I will not stay there again.MoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded February 1, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 1, 2018</t>
-  </si>
-  <si>
-    <t>The workers were very nice.  no coffee in room, TV was smaller than a computer monitor, wifi was not good, fitness room was very basic.  room did not feel clean.  If given the chance I will not stay there again.More</t>
-  </si>
-  <si>
-    <t>319kelliem</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r555703572-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
-  </si>
-  <si>
-    <t>555703572</t>
-  </si>
-  <si>
-    <t>01/22/2018</t>
-  </si>
-  <si>
-    <t>It was okay...</t>
-  </si>
-  <si>
-    <t>Reasonable price for the quality of the room. My room was not serviced for the 4 nights I spent. I was never asked prompted about whether I would like cleaning services while I was there either. Only 3 cardio machines in the workout room.MoreShow less</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded January 23, 2018</t>
-  </si>
-  <si>
-    <t>Responded January 23, 2018</t>
-  </si>
-  <si>
-    <t>Reasonable price for the quality of the room. My room was not serviced for the 4 nights I spent. I was never asked prompted about whether I would like cleaning services while I was there either. Only 3 cardio machines in the workout room.More</t>
-  </si>
-  <si>
-    <t>nema2018</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r554633688-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
-  </si>
-  <si>
-    <t>554633688</t>
-  </si>
-  <si>
-    <t>01/18/2018</t>
-  </si>
-  <si>
-    <t>Extended stay America</t>
-  </si>
-  <si>
-    <t>Iam very satisfied with this Hotel.the staff are quick to answer and provide to all your needs.When I do get packages from online orders they make sure I get it as soon as they received them.I haven’t been to other rooms in this hotel but mine was as neat as u get from higher rated hotels.For anyone looking for a clean friendly comfortable  and affordable price then I recommend this place.MoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded January 19, 2018</t>
-  </si>
-  <si>
-    <t>Responded January 19, 2018</t>
-  </si>
-  <si>
-    <t>Iam very satisfied with this Hotel.the staff are quick to answer and provide to all your needs.When I do get packages from online orders they make sure I get it as soon as they received them.I haven’t been to other rooms in this hotel but mine was as neat as u get from higher rated hotels.For anyone looking for a clean friendly comfortable  and affordable price then I recommend this place.More</t>
-  </si>
-  <si>
-    <t>Kristin S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r546227662-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
-  </si>
-  <si>
-    <t>546227662</t>
-  </si>
-  <si>
-    <t>12/09/2017</t>
-  </si>
-  <si>
-    <t>Gross</t>
-  </si>
-  <si>
-    <t>The hotel in general smelled like mildew, especially the elevators. The bathtub was leaking and the smell in there was wretched. We thought it we used the water it would eventually stop smelling so horrible, but it did not. We were unable to use the water in any of the sinks or showers while we were there. We had to purchase bottled water in the vending machine for $2 to brush our teeth, and use the hot water (from the amusingly meager "breakfast") offered in order to clean up before leaving. The staff made sure to ask me to give them 9-10 stars on the survey I would receive. They were pleasant enough as I waited to be checked in and listened to another long-term resident of the hotel talk about the police presence on the property, and how glad she was that the previous next-door neighbor had left since he was constantly screaming at himself in his room. As they finally checked me into my room, and I was pretty aware of the mistake I had made in booking such a cheap hotel. On the plus side, the bed was comfortable, and the heater worked. Next time, I'll pony up the extra $50 and stay somewhere I can shower, or maybe just wash my hands.MoreShow less</t>
-  </si>
-  <si>
-    <t>December 2017</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded December 10, 2017</t>
-  </si>
-  <si>
-    <t>Responded December 10, 2017</t>
-  </si>
-  <si>
-    <t>The hotel in general smelled like mildew, especially the elevators. The bathtub was leaking and the smell in there was wretched. We thought it we used the water it would eventually stop smelling so horrible, but it did not. We were unable to use the water in any of the sinks or showers while we were there. We had to purchase bottled water in the vending machine for $2 to brush our teeth, and use the hot water (from the amusingly meager "breakfast") offered in order to clean up before leaving. The staff made sure to ask me to give them 9-10 stars on the survey I would receive. They were pleasant enough as I waited to be checked in and listened to another long-term resident of the hotel talk about the police presence on the property, and how glad she was that the previous next-door neighbor had left since he was constantly screaming at himself in his room. As they finally checked me into my room, and I was pretty aware of the mistake I had made in booking such a cheap hotel. On the plus side, the bed was comfortable, and the heater worked. Next time, I'll pony up the extra $50 and stay somewhere I can shower, or maybe just wash my hands.More</t>
-  </si>
-  <si>
-    <t>avelinog2016</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r541296253-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
-  </si>
-  <si>
-    <t>541296253</t>
-  </si>
-  <si>
-    <t>11/15/2017</t>
-  </si>
-  <si>
-    <t>THIN WALLS</t>
-  </si>
-  <si>
-    <t>The service was poor with staff no care attitude.  The shower was not working, broken outlet plates, cleanliness and replacements of bathroom items never happen. When checking in I was never informed that maintaining your room with clean sheets, towels and other needs would take one week of your stay.  The walls are so thin that I could hear the person in the next room snoring.MoreShow less</t>
-  </si>
-  <si>
-    <t>November 2017</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded November 16, 2017</t>
-  </si>
-  <si>
-    <t>Responded November 16, 2017</t>
-  </si>
-  <si>
-    <t>The service was poor with staff no care attitude.  The shower was not working, broken outlet plates, cleanliness and replacements of bathroom items never happen. When checking in I was never informed that maintaining your room with clean sheets, towels and other needs would take one week of your stay.  The walls are so thin that I could hear the person in the next room snoring.More</t>
-  </si>
-  <si>
-    <t>TXRVer09</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r535765048-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
-  </si>
-  <si>
-    <t>535765048</t>
-  </si>
-  <si>
-    <t>10/24/2017</t>
-  </si>
-  <si>
-    <t>Large clean comfortable rooms</t>
-  </si>
-  <si>
-    <t>This Extended Stay has been downgraded, so don't expect for find any cooking or eating utensils.  The Staff was quite friendly and accommodating.Slamming doors can be a problem.   Room doors are spring loaded and make a horrible  slamming noise, so don't expect a nap or  an early sleep.MoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Bedford, responded to this reviewResponded October 25, 2017</t>
-  </si>
-  <si>
-    <t>Responded October 25, 2017</t>
-  </si>
-  <si>
-    <t>This Extended Stay has been downgraded, so don't expect for find any cooking or eating utensils.  The Staff was quite friendly and accommodating.Slamming doors can be a problem.   Room doors are spring loaded and make a horrible  slamming noise, so don't expect a nap or  an early sleep.More</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r508116972-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -689,9 +638,6 @@
     <t>My family and i have stayed at Extended stay for the past few months , i have 2 dogs . The staff has been extremely friendly and accomodating during our stay. This is one of the best pet friendly hotels my family and i have ever stayed in. Rooms are clean, nice furniture,  plenty of places to eat within walking distance and most importantly safe. I would recommend this hotel to all of my friends and family. More</t>
   </si>
   <si>
-    <t>williammN5874YS</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r507645471-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -719,9 +665,6 @@
     <t>Don't stay at this hotel for less than a week if you want housekeeping or breakfast. I don't consider a packaged muffin and a granola bar as breakfast. I even asked for housekeeping to clean our room after we had been there for two days and they said you have to be staying a minimum of seven days to receive housekeeping. We even had to get our own towels. I will be sure to never stay at an extended stay hotel again.More</t>
   </si>
   <si>
-    <t>sharonbF4771DO</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r505682978-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -746,9 +689,6 @@
     <t>I enjoyed the staff at the entended stay and found them to be very helpful. My grandchildren really enjoyed the pool. The grab and go breakfast was nice but the coffee was a little weak. The manger was always available to answer our questions.More</t>
   </si>
   <si>
-    <t>E8693YXstacym</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r505682963-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -764,9 +704,6 @@
     <t>Staff was very friendly, room was spacious and very clean.  We had no issues on our stay.  We only stayed for one night, so we didn't utilize kitchen area of room but kitchen was very clean and well kept.  Will stay again if in the area.More</t>
   </si>
   <si>
-    <t>jonboy41</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r505683004-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -782,9 +719,6 @@
     <t>"Breakfast" was a joke - coffee and granola bars.  Luggage Cart would barely roll.  Most of the hotel smelled bad.  TV in room was so small you could't see it from the bed.  Housekeeping didn't clean our room.More</t>
   </si>
   <si>
-    <t>heatherramsey</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r502325621-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -809,9 +743,6 @@
     <t>The manager was really rude and disrespectful she need to be reported.(Jennifer garner) as well as the assistant manger she was really  unprofessional and very sarcastic I would never stay there again after that horrible experience. No sheets or towels. They need to be reported both Jennifer and Latisha   More</t>
   </si>
   <si>
-    <t>cynthiae789</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r494724767-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -839,9 +770,6 @@
     <t>Tried to check in at 1am was told I had to wait at least 45minutes due to some auditing nonsense. Then after waiting 2 hours or so we come back to check in and one of the side door towards our room was not working. We get into the room and it stunk like cigarette smoke so we had to go back and notify the staff immediately because I did not want to get charged extra fees and getting blamed for the smoke. So then we were given a separate room since the first one stunk. We get to the room and it was like 90 degrees in there so it took forever for the ac to bring the temp down to a normal temp. Then right before we were about to shower we realize there are only 2 towels, keep in mind we are a family of 4, so there is no way we can manage with only 2 towels. So there we go again going back to front desk- to ask for towels, I request extras so I can shower after I wake up so I ask for a total of 4 since we are a family of 4, and Im told no, I can only have 2 more since I already have 2 in the room. I know I have 2 towels in the room already but I want 4 more for a total of 6 so...Tried to check in at 1am was told I had to wait at least 45minutes due to some auditing nonsense. Then after waiting 2 hours or so we come back to check in and one of the side door towards our room was not working. We get into the room and it stunk like cigarette smoke so we had to go back and notify the staff immediately because I did not want to get charged extra fees and getting blamed for the smoke. So then we were given a separate room since the first one stunk. We get to the room and it was like 90 degrees in there so it took forever for the ac to bring the temp down to a normal temp. Then right before we were about to shower we realize there are only 2 towels, keep in mind we are a family of 4, so there is no way we can manage with only 2 towels. So there we go again going back to front desk- to ask for towels, I request extras so I can shower after I wake up so I ask for a total of 4 since we are a family of 4, and Im told no, I can only have 2 more since I already have 2 in the room. I know I have 2 towels in the room already but I want 4 more for a total of 6 so I can shower in about 5 hours because by now it is already past 3am and since we have to wake up by 9am or before, I want to have clean dry towels and not have to reuse them. Well, no I dont get extra towels or washcloths so I dont see why I wasnt allowed extra towels. Then I ask for ice machine and I am told this hotel doesnt have an ice machine so ok fine whatever. I then ask about breakfast and if there is milk? I am then told no, but we have creamer!!!!! I asked for milk! Not creamer!!!! So breakfast is actually only muffins, granola bars, and coffee because there is no milk, juice, cereal, or even MILK!!!!?!?! What kind of breakfast does not include milk??!?!?! Even if it is complimentary breakfast it should include milk or juice!!!! Never have I dealt with so much crap in my life with a hotel, not even motel 6 even though the last time we actually stayed at a motel was like 6 years ago because we prefer hotels. Anyways so after a few hours we wake up and get ready to check out. We get to the front office and am told I have been charged an additional $57 because supposedly thats how it always is when u check in after midnight!!!!!! We have stayed at several different hotels after midnight and never have I been charged extra!!! This hotel has been the worst ever! Totally not worth my $100 that I got charged or actually make that a grand total of $157 because of the extra charges!!!! More</t>
   </si>
   <si>
-    <t>lindawJ7566IV</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r494546365-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -863,9 +791,6 @@
     <t>Smelled like cigarette smoke. No sheets blankets pillowcase for the pullout couch.  only 2 towels and there were 4 of us. Staff members were super sweet. Location was good. Not sure if i could be recommend this hotel.More</t>
   </si>
   <si>
-    <t>Gayla W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r494732057-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -881,9 +806,6 @@
     <t>Great location with easy access.  Enjoyed the pool and the AC.  Room was quiet and the bed was extremely comfortable. Laundry facilities and gym worked out great.  Jackie was fabulous.  Highly recommend for those on business or leisure and especially with families.  Restaurants and roller skate is close by along with lots of other fun opportunities.More</t>
   </si>
   <si>
-    <t>mjgolden3</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r494732000-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -899,9 +821,6 @@
     <t>Hotel reservation process is klunky at best, but once you get past that, the hotel stay is much better.  I reserved my hotel room via an on-line website which advertised a Veteran's Advantage affiliation discount.  However, the correct rate was not listed on the hotel reservation, but I was assured I would receive the rate advertised at the web-site.   I did  receive the discounted rate, but it took two reminders to the hotel staff.  That was frustrating.More</t>
   </si>
   <si>
-    <t>Sybil C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r467649478-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -956,9 +875,6 @@
     <t>Great place to stay and very pet-friendly. This was a huge attraction for me. The hotel is in a great location where you can find food, shopping all around. The best part, though, is the staff. They are excellent in what they do and very knowledgeable and friendly. I never hesitated to ask a question because they always had a correct response. "Definitely two thumbs up for this hotel and their wonderful staff."More</t>
   </si>
   <si>
-    <t>danp229</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r466551845-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -977,9 +893,6 @@
     <t>I have stayed in many ESAs for work.  This ESA is my favorite.  The front desk staff is amazing (Amanda, Josh, Julie, Jackie, Gabe, Veronica).  The maintenance guy (Gary) is very friendly and resolves any maintenance issue quickly.  Housekeeping does a remarkable job.... Jared, Myra, Alicia.  All of the staff makes me feel very welcome and like I'm staying with friends.  The hotel is within walking distance to several restaurants.  Shopping is within 10 minutes driving distance.  Plenty of parking, even for Uhauls with trailers.  More</t>
   </si>
   <si>
-    <t>Tere W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r459958560-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1007,9 +920,6 @@
     <t>The staff is friendly from everyone at the front desk to house keeping. If you need something they go out of their way to help. The room are clean. We have a 6 year old daughter and they know her by name. We recommend this hotel to others. More</t>
   </si>
   <si>
-    <t>notron11</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r450973624-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1037,9 +947,6 @@
     <t>This was an older hotel. Very clean from the outside appearance to the entire inside.  Staff was very helpful and friendly.   Inside rooms which is a must for me.got the room on Priceline for a good price.  We felt safe at this hotel. Only drawback is the room only had one bed and s pullout Couch.  Not the most comfortable beds but they got the job done.  This is an extended stay hotel with full kitchen.More</t>
   </si>
   <si>
-    <t>Chach63</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r439895996-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1064,9 +971,6 @@
     <t>We had a kitchen problem on Thanksgiving so we found a room with a kitchen. Explained the issue at check in and were assured that our room had a fully equipped kitchen - found nothing, absolutely nothing -  in the kitchen. Two trips back to the desk gave us enough plates and utensils to eat. The refrigerator made so much noise it was hard to hear the football game and melted the ice cream.  At 6:20 am doors started slamming around us with such intensity and noise that our bed was shaking. I went out to see what was happening and found house keeping getting ready to vacuum. I yelled "hey" and startled her. She was furious that I had startled her, said it was all the guests leaving who made the noise, not her and that I had scared her. I asked if it was OK that she startled me and scared me, but not ok if I startled and scared her? She quietly closed the door of the closet open behind her to prove that it wasn't her making the noise. No one entered or left the hall during the exchange. When I returned to my room the door slamming began again in earnest. Never again. More</t>
   </si>
   <si>
-    <t>Kayla M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r433592156-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1091,9 +995,6 @@
     <t>Weekly stay was a bit more pricy than anticipated. So far so good. Hotel staff very helpful &amp;&amp; very friendly. Rooms are cozy. Non smoking policy is cool. Grab n go breakfast is the way to go. Parking is sometimes difficult, but this has been totally worth the few extra steps!More</t>
   </si>
   <si>
-    <t>Woody-in-Paris</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r422997687-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1118,9 +1019,6 @@
     <t>I tell you what, I stayed here last weekend and I was not impressed.  What did impress me was that I had a problem while I was there and the manager called me and made it right.  I can not complain about that.  If I am in the area I may give them another shot just because how they handled that issue.  They listened and solved the problem, that means a lot to me.  Kudos Ext stay Bedford.More</t>
   </si>
   <si>
-    <t>julsvaught</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r410328251-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1148,9 +1046,6 @@
     <t>The rooms look better since the renovation. Glad that they chg'd to a non smoking hotel.The following personnel that work the front desk which are:Amanda,Galina,Josh &amp; Desire (these are the ones that I have come in contact with) have a very pleasant personality &amp; disposition. People that work in housekeeping are very good no matter how the room is when they go into clean it always looks better after they have finished. Now they have a maintenance man by the name of Gary who is terrific.Not only is he good at his job he is a very polite person.If a guest has a question they may stop him for an answer to their question.he is never rude &amp; he is very patient. So this is the true facts about this hotel.I gave it a rating of Very Good because Excellent is not real.Very Good is :) :) :) :)More</t>
   </si>
   <si>
-    <t>squinn1959</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r385112629-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1176,9 +1071,6 @@
   </si>
   <si>
     <t>This was my first time to stay at an Extended Stay America hotel. The hotel and my room were clean  the place has a comfortable atmosphere but by for the best thing about our visit was the professionalism of of a young lady at the desk named Desire. We are new to town did not know where to go eat did not know our way around she was very helpful in getting us acclimated to the city. We had a special needs guest she went out of her way to make sure that our guest was well taken care of.   We will definitely come back and stay here and we do appreciate all the help she was.More</t>
-  </si>
-  <si>
-    <t>shengfan888</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107378-r382483158-Extended_Stay_America_Dallas_Bedford-Bedford_Texas.html</t>
@@ -1707,38 +1599,34 @@
       <c r="A2" t="n">
         <v>37437</v>
       </c>
-      <c r="B2" t="n">
-        <v>136001</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -1755,129 +1643,117 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" t="s">
         <v>52</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>53</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37437</v>
       </c>
-      <c r="B3" t="n">
-        <v>136002</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37437</v>
       </c>
-      <c r="B4" t="n">
-        <v>2321</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" t="s">
-        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1889,60 +1765,56 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37437</v>
       </c>
-      <c r="B5" t="n">
-        <v>1029</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
         <v>77</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" t="s">
-        <v>81</v>
-      </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="O5" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1954,60 +1826,56 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37437</v>
       </c>
-      <c r="B6" t="n">
-        <v>12875</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="O6" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2019,265 +1887,259 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37437</v>
       </c>
-      <c r="B7" t="n">
-        <v>136003</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37437</v>
       </c>
-      <c r="B8" t="n">
-        <v>136004</v>
-      </c>
-      <c r="C8" t="s">
-        <v>105</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>112</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>3</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="X8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="Y8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37437</v>
       </c>
-      <c r="B9" t="n">
-        <v>136005</v>
-      </c>
-      <c r="C9" t="s">
-        <v>116</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>72</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="X9" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="Y9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37437</v>
       </c>
-      <c r="B10" t="n">
-        <v>9033</v>
-      </c>
-      <c r="C10" t="s">
-        <v>125</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -2293,153 +2155,145 @@
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="X10" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="Y10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37437</v>
       </c>
-      <c r="B11" t="n">
-        <v>136006</v>
-      </c>
-      <c r="C11" t="s">
-        <v>134</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="X11" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y11" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37437</v>
       </c>
-      <c r="B12" t="n">
-        <v>136007</v>
-      </c>
-      <c r="C12" t="s">
-        <v>144</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="J12" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="K12" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="L12" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
@@ -2449,63 +2303,59 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="X12" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="Y12" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37437</v>
       </c>
-      <c r="B13" t="n">
-        <v>136008</v>
-      </c>
-      <c r="C13" t="s">
-        <v>154</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="K13" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
         <v>3</v>
@@ -2518,371 +2368,345 @@
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="X13" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="Y13" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37437</v>
       </c>
-      <c r="B14" t="n">
-        <v>136009</v>
-      </c>
-      <c r="C14" t="s">
-        <v>163</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="J14" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="O14" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
         <v>4</v>
       </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3</v>
-      </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="X14" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="Y14" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37437</v>
       </c>
-      <c r="B15" t="n">
-        <v>136010</v>
-      </c>
-      <c r="C15" t="s">
-        <v>173</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
       <c r="R15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="X15" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="Y15" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37437</v>
       </c>
-      <c r="B16" t="n">
-        <v>21880</v>
-      </c>
-      <c r="C16" t="s">
-        <v>182</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="J16" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="K16" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
       <c r="R16" t="n">
         <v>3</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="X16" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="Y16" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37437</v>
       </c>
-      <c r="B17" t="n">
-        <v>136011</v>
-      </c>
-      <c r="C17" t="s">
-        <v>192</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="J17" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="O17" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
       </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="X17" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="Y17" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37437</v>
       </c>
-      <c r="B18" t="n">
-        <v>136012</v>
-      </c>
-      <c r="C18" t="s">
-        <v>202</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="J18" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="K18" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="O18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>5</v>
@@ -2891,60 +2715,56 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="X18" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="Y18" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37437</v>
       </c>
-      <c r="B19" t="n">
-        <v>136004</v>
-      </c>
-      <c r="C19" t="s">
-        <v>116</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="J19" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="K19" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="O19" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2956,60 +2776,56 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="X19" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="Y19" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37437</v>
       </c>
-      <c r="B20" t="n">
-        <v>136013</v>
-      </c>
-      <c r="C20" t="s">
-        <v>219</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="J20" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="K20" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="O20" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
@@ -3031,60 +2847,56 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="X20" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="Y20" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37437</v>
       </c>
-      <c r="B21" t="n">
-        <v>136014</v>
-      </c>
-      <c r="C21" t="s">
-        <v>229</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="J21" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="K21" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="O21" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -3106,60 +2918,56 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="X21" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="Y21" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37437</v>
       </c>
-      <c r="B22" t="n">
-        <v>136015</v>
-      </c>
-      <c r="C22" t="s">
-        <v>238</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="J22" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="K22" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="O22" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3181,60 +2989,56 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="X22" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="Y22" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37437</v>
       </c>
-      <c r="B23" t="n">
-        <v>136016</v>
-      </c>
-      <c r="C23" t="s">
-        <v>244</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
       <c r="I23" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="J23" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="K23" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="O23" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -3256,60 +3060,56 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="X23" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="Y23" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37437</v>
       </c>
-      <c r="B24" t="n">
-        <v>136017</v>
-      </c>
-      <c r="C24" t="s">
-        <v>250</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
         <v>46</v>
       </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
       <c r="I24" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="J24" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="K24" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="O24" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3321,60 +3121,56 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="X24" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="Y24" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37437</v>
       </c>
-      <c r="B25" t="n">
-        <v>136018</v>
-      </c>
-      <c r="C25" t="s">
-        <v>259</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
         <v>46</v>
       </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
       <c r="I25" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="K25" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="O25" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -3396,60 +3192,56 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="X25" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="Y25" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37437</v>
       </c>
-      <c r="B26" t="n">
-        <v>136019</v>
-      </c>
-      <c r="C26" t="s">
-        <v>269</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
         <v>46</v>
       </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
       <c r="I26" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="J26" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="K26" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -3471,60 +3263,56 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="X26" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="Y26" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37437</v>
       </c>
-      <c r="B27" t="n">
-        <v>136020</v>
-      </c>
-      <c r="C27" t="s">
-        <v>277</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
         <v>46</v>
       </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
       <c r="I27" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="J27" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="K27" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="O27" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3546,60 +3334,56 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="X27" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="Y27" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37437</v>
       </c>
-      <c r="B28" t="n">
-        <v>136021</v>
-      </c>
-      <c r="C28" t="s">
-        <v>283</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
         <v>46</v>
       </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
       <c r="I28" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="J28" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="K28" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="L28" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="O28" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -3621,60 +3405,56 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="X28" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="Y28" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37437</v>
       </c>
-      <c r="B29" t="n">
-        <v>136022</v>
-      </c>
-      <c r="C29" t="s">
-        <v>289</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
         <v>46</v>
       </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
       <c r="I29" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="J29" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="K29" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="L29" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="O29" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -3690,60 +3470,56 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="X29" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="Y29" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37437</v>
       </c>
-      <c r="B30" t="n">
-        <v>136001</v>
-      </c>
-      <c r="C30" t="s">
-        <v>55</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
         <v>46</v>
       </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
       <c r="I30" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="J30" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="K30" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="L30" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3759,60 +3535,56 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="X30" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="Y30" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37437</v>
       </c>
-      <c r="B31" t="n">
-        <v>136023</v>
-      </c>
-      <c r="C31" t="s">
-        <v>308</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
         <v>46</v>
       </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
       <c r="I31" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="J31" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="K31" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="O31" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3824,60 +3596,56 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="X31" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="Y31" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37437</v>
       </c>
-      <c r="B32" t="n">
-        <v>136024</v>
-      </c>
-      <c r="C32" t="s">
-        <v>315</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
         <v>46</v>
       </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
       <c r="I32" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="J32" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="K32" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="L32" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="O32" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3889,60 +3657,56 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="X32" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="Y32" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37437</v>
       </c>
-      <c r="B33" t="n">
-        <v>136025</v>
-      </c>
-      <c r="C33" t="s">
-        <v>325</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
         <v>46</v>
       </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
       <c r="I33" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="J33" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="K33" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="L33" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="O33" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3954,60 +3718,56 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="X33" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="Y33" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37437</v>
       </c>
-      <c r="B34" t="n">
-        <v>136026</v>
-      </c>
-      <c r="C34" t="s">
-        <v>335</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
         <v>46</v>
       </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
       <c r="I34" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="J34" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="K34" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="L34" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="O34" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4019,60 +3779,56 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="X34" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="Y34" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37437</v>
       </c>
-      <c r="B35" t="n">
-        <v>49187</v>
-      </c>
-      <c r="C35" t="s">
-        <v>344</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
         <v>46</v>
       </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
       <c r="I35" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="J35" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="K35" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="L35" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="O35" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4084,60 +3840,56 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="X35" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="Y35" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37437</v>
       </c>
-      <c r="B36" t="n">
-        <v>136027</v>
-      </c>
-      <c r="C36" t="s">
-        <v>353</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
         <v>46</v>
       </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
       <c r="I36" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="J36" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="K36" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="L36" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="O36" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4149,60 +3901,56 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="X36" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="Y36" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37437</v>
       </c>
-      <c r="B37" t="n">
-        <v>136028</v>
-      </c>
-      <c r="C37" t="s">
-        <v>362</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
       <c r="I37" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="J37" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="K37" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="L37" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="O37" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4218,60 +3966,56 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="X37" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="Y37" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37437</v>
       </c>
-      <c r="B38" t="n">
-        <v>136029</v>
-      </c>
-      <c r="C38" t="s">
-        <v>372</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
       <c r="I38" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="J38" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="K38" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="L38" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="O38" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4283,60 +4027,56 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="X38" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="Y38" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37437</v>
       </c>
-      <c r="B39" t="n">
-        <v>136030</v>
-      </c>
-      <c r="C39" t="s">
-        <v>382</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
         <v>46</v>
       </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
       <c r="I39" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="J39" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="K39" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="L39" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="O39" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -4354,13 +4094,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="X39" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="Y39" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
